--- a/JP_Timesheet_Project.xlsx
+++ b/JP_Timesheet_Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C1043C-04AC-41E5-A30E-F034C4F2A5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF3250D-6874-4CC0-A577-3A5E2E80069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A5FDD2F-951D-4BAD-9144-9D904CCCE766}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="35">
   <si>
     <t>initials</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Choir practice</t>
+  </si>
+  <si>
+    <t>Homework</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,100 +816,188 @@
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="3">
+        <v>45181</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="3">
+        <v>45181</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="3">
+        <v>45181</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="3">
+        <v>45181</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="3">
+        <v>45182</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="3">
+        <v>45182</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="3">
+        <v>45182</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="3">
+        <v>45186</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="3">
+        <v>45187</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="3">
+        <v>45187</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="3">
+        <v>45187</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
